--- a/pred_ohlcv/54_21/2020-01-12 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 TMTG ohlcv.xlsx
@@ -11390,7 +11390,7 @@
         <v>-374641.7074804326</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-456031.0624804326</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-461690.5854804326</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-439153.2264804326</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-468465.1894804326</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-502422.4564804326</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-539666.3684804325</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-544123.0924804326</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-533442.9124804325</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-518139.6514804325</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-512841.0274804325</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-1088020.611080433</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-1033932.539080432</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-980351.718838941</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-990567.5691389409</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1206961.431338941</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1431199.031538941</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1379602.332938941</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1336093.835938941</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-1530061.785138941</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-5240756.136038943</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-6177233.755238943</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-10354274.63667773</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-10354274.63667773</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-10354274.63667773</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-10352872.40667773</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-10271373.72647773</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-10332365.33157773</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-10332365.33157773</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-10403372.45617773</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-10552499.13947773</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-10548299.03847264</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-10548299.03847264</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-10548299.03847264</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-10042237.62407264</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-10009602.94307264</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-10009040.04007264</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-10008069.50507264</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-10009216.05007264</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-10009216.05007264</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-10009216.05007264</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-10009216.05007264</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-10007937.86307264</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-9675345.377500199</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-9679432.354500197</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-9744840.081600199</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-9742017.216600198</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-9741183.6456002</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-9625359.769300202</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-9682054.117900202</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-9682054.117900202</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-9940192.433900202</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-9486201.694900202</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-10328110.0599002</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-26455753.0039002</v>
       </c>
       <c r="H1163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-26525475.2329002</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-26659739.4709002</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-26868194.0909002</v>
       </c>
       <c r="H1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-26186342.9403002</v>
       </c>
       <c r="H1185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-26186342.9403002</v>
       </c>
       <c r="H1186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-25624417.1823002</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-27074236.58764403</v>
       </c>
       <c r="H1205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-26521115.15364403</v>
       </c>
       <c r="H1206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-24393245.85414403</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-24393245.85414403</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 TMTG ohlcv.xlsx
@@ -11988,7 +11988,7 @@
         <v>-990567.5691389409</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1206961.431338941</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1431199.031538941</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1379602.332938941</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1336093.835938941</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-1530061.785138941</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-4926810.173938943</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-5240756.136038943</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-5760260.856738943</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-5768601.335738943</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-6177233.755238943</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-8886869.666338941</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-8888302.075338941</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-8887020.589338941</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-8885315.713338941</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-8886232.402338943</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-8891697.606338942</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-8912488.262838941</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-9665062.904500198</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-9677929.397500198</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-9677929.397500198</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-9677237.746500198</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-9675880.345500197</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-9674065.550500197</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-9671709.326500198</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-9670988.588500198</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-9669897.158500198</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-9668322.046500199</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-9668322.046500199</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-9675095.778500199</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-9675345.377500199</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-9675345.377500199</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-9673316.203500198</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-9676185.165500198</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-9679432.354500197</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-9755037.974600198</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-9753505.348600198</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-9755815.540600197</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-9749098.621600198</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-9744440.422600199</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-9743990.561600199</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-9742797.999600198</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-9744840.081600199</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-9742017.216600198</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-9742017.216600198</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-9743197.129600199</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-9741183.6456002</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-9737814.746600199</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-9744831.502300199</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-9703309.2093002</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-9703309.2093002</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-9703309.2093002</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-9701163.115300199</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-9704273.515300199</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-9700098.536300199</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-9699898.205300199</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-9699242.166300198</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-9699242.166300198</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-9695831.319300199</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-9699809.991300199</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-9700596.7093002</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-9701969.765300199</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-9704576.8843002</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-9697680.673300201</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-9693527.059300201</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-9692591.575300202</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-9639647.939300202</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-9636383.697300201</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-9640833.778300202</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-9625359.769300202</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-9682054.117900202</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-9682054.117900202</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-9940192.433900202</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-9486201.694900202</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-10328110.0599002</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-10328110.0599002</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-11775482.5848002</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-11607780.1535002</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-11617055.9008002</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-11617055.9008002</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-12687695.0258002</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-12687695.0258002</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-14063216.8538002</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-13765531.5798002</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-16335248.3098002</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-26208793.6855002</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-26208793.6855002</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-26208793.6855002</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-26035702.2715002</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-26242952.2825002</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-26249614.3325002</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-26455753.0039002</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-26525475.2329002</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-26659739.4709002</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-26868194.0909002</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-26186342.9403002</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-26186342.9403002</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-25624417.1823002</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-27074236.58764403</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-26521115.15364403</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-25607267.42214403</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-24563869.09614403</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-24103052.15214403</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-24172180.45714403</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-24464878.74814403</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-24464878.74814403</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-25220279.76614403</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-24337243.09014403</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-25843338.50654403</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
